--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/168.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/168.xlsx
@@ -479,13 +479,13 @@
         <v>-5.209818436163976</v>
       </c>
       <c r="E2" t="n">
-        <v>-14.3347127260336</v>
+        <v>-13.09428249329426</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.022878150257466</v>
+        <v>-1.890308675036027</v>
       </c>
       <c r="G2" t="n">
-        <v>-11.82885905443007</v>
+        <v>-10.09446932777525</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-5.332227680679933</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.60495094898966</v>
+        <v>-13.44492054800137</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.872198836852041</v>
+        <v>-1.721954752794272</v>
       </c>
       <c r="G3" t="n">
-        <v>-11.73769734974313</v>
+        <v>-10.00415862277302</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-5.561746934615891</v>
       </c>
       <c r="E4" t="n">
-        <v>-15.05426569021486</v>
+        <v>-14.09935239784789</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.7293356282431261</v>
+        <v>-1.546819017680502</v>
       </c>
       <c r="G4" t="n">
-        <v>-11.35897630544052</v>
+        <v>-9.728316894200697</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-5.847538016910776</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.64822419323545</v>
+        <v>-14.80390158297253</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.6454663362390289</v>
+        <v>-1.544108910992265</v>
       </c>
       <c r="G5" t="n">
-        <v>-11.31082281558865</v>
+        <v>-9.789484133077242</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-6.147270842440602</v>
       </c>
       <c r="E6" t="n">
-        <v>-16.21281666098204</v>
+        <v>-15.49994077125006</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.4641772187896481</v>
+        <v>-1.306103937632526</v>
       </c>
       <c r="G6" t="n">
-        <v>-10.93325389393612</v>
+        <v>-9.329119488253628</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-6.413002502615861</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.89051353297831</v>
+        <v>-16.27425883821826</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.3793652809809466</v>
+        <v>-1.234672333328069</v>
       </c>
       <c r="G7" t="n">
-        <v>-10.78443368753421</v>
+        <v>-9.235234584575609</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-6.605555213953235</v>
       </c>
       <c r="E8" t="n">
-        <v>-17.54141046105756</v>
+        <v>-16.97275937943003</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.2192071403181116</v>
+        <v>-1.092018601564622</v>
       </c>
       <c r="G8" t="n">
-        <v>-10.37346630133243</v>
+        <v>-8.722854220561819</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-6.688778864926239</v>
       </c>
       <c r="E9" t="n">
-        <v>-18.30469171673019</v>
+        <v>-17.81678086672759</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.2666667381193686</v>
+        <v>-1.095370231092104</v>
       </c>
       <c r="G9" t="n">
-        <v>-10.21706565158517</v>
+        <v>-8.502183456164525</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-6.642442060962797</v>
       </c>
       <c r="E10" t="n">
-        <v>-18.8445004551974</v>
+        <v>-18.48107122061393</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.07257334849077968</v>
+        <v>-1.008489709434409</v>
       </c>
       <c r="G10" t="n">
-        <v>-9.921441453418998</v>
+        <v>-8.183124035911662</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-6.468743568543307</v>
       </c>
       <c r="E11" t="n">
-        <v>-19.47608623658511</v>
+        <v>-19.15202555664671</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1508075225947505</v>
+        <v>-0.8002566327367563</v>
       </c>
       <c r="G11" t="n">
-        <v>-9.567189923127575</v>
+        <v>-7.841441116348295</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-6.187933556158463</v>
       </c>
       <c r="E12" t="n">
-        <v>-20.07319998459055</v>
+        <v>-19.77277091128146</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.03472350097534961</v>
+        <v>-1.040238543825595</v>
       </c>
       <c r="G12" t="n">
-        <v>-9.044440455263135</v>
+        <v>-7.330775844006769</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-5.834554066205629</v>
       </c>
       <c r="E13" t="n">
-        <v>-20.82599430568696</v>
+        <v>-20.66569214969286</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1709958535766921</v>
+        <v>-0.7554416801095279</v>
       </c>
       <c r="G13" t="n">
-        <v>-8.414491211730645</v>
+        <v>-6.695537310126221</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-5.465897650343825</v>
       </c>
       <c r="E14" t="n">
-        <v>-21.62215033379516</v>
+        <v>-21.36338096812845</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3993910766506034</v>
+        <v>-0.5814973445543554</v>
       </c>
       <c r="G14" t="n">
-        <v>-8.117374491040513</v>
+        <v>-6.443458111211627</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-5.143037721815094</v>
       </c>
       <c r="E15" t="n">
-        <v>-22.48736825939347</v>
+        <v>-22.2362055216778</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5778522566861714</v>
+        <v>-0.4589795745614829</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.427279208253132</v>
+        <v>-5.860235296521256</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-4.917891052887151</v>
       </c>
       <c r="E16" t="n">
-        <v>-23.54673194383173</v>
+        <v>-23.23133836837455</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8525025856999009</v>
+        <v>-0.1849576760841563</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.059922282817141</v>
+        <v>-5.382300781284045</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-4.826731740778412</v>
       </c>
       <c r="E17" t="n">
-        <v>-24.21069499014703</v>
+        <v>-23.95896928340916</v>
       </c>
       <c r="F17" t="n">
-        <v>0.986607043707701</v>
+        <v>-0.05436195523793871</v>
       </c>
       <c r="G17" t="n">
-        <v>-6.927663839510024</v>
+        <v>-5.140773978459883</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-4.882489053600576</v>
       </c>
       <c r="E18" t="n">
-        <v>-25.10709878111433</v>
+        <v>-24.90338254889707</v>
       </c>
       <c r="F18" t="n">
-        <v>1.313390922637184</v>
+        <v>0.1587152735111531</v>
       </c>
       <c r="G18" t="n">
-        <v>-6.384398733092601</v>
+        <v>-4.61624395740897</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-5.070281751325336</v>
       </c>
       <c r="E19" t="n">
-        <v>-25.89754656518354</v>
+        <v>-25.77285547291894</v>
       </c>
       <c r="F19" t="n">
-        <v>1.413494670165021</v>
+        <v>0.2175128055733448</v>
       </c>
       <c r="G19" t="n">
-        <v>-6.297256365378072</v>
+        <v>-4.401674206135922</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-5.354887167095239</v>
       </c>
       <c r="E20" t="n">
-        <v>-26.66090637467322</v>
+        <v>-26.53710555900186</v>
       </c>
       <c r="F20" t="n">
-        <v>1.556933940098972</v>
+        <v>0.3791372841544531</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.989849094654343</v>
+        <v>-4.068776221779353</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-5.698938468275496</v>
       </c>
       <c r="E21" t="n">
-        <v>-27.30715553524366</v>
+        <v>-27.15413269962957</v>
       </c>
       <c r="F21" t="n">
-        <v>1.817654058889105</v>
+        <v>0.5896615138494083</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.741776140409319</v>
+        <v>-3.7358520528171</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-6.057099988968696</v>
       </c>
       <c r="E22" t="n">
-        <v>-27.88282409119436</v>
+        <v>-27.77980076013282</v>
       </c>
       <c r="F22" t="n">
-        <v>1.940381305727445</v>
+        <v>0.6398835875502695</v>
       </c>
       <c r="G22" t="n">
-        <v>-5.043341060711758</v>
+        <v>-3.220002228550252</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-6.383905995866949</v>
       </c>
       <c r="E23" t="n">
-        <v>-28.29068860162265</v>
+        <v>-28.20533987939744</v>
       </c>
       <c r="F23" t="n">
-        <v>2.127627420969811</v>
+        <v>0.7603720506026745</v>
       </c>
       <c r="G23" t="n">
-        <v>-5.067522544060425</v>
+        <v>-3.111611053323601</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-6.650689595676235</v>
       </c>
       <c r="E24" t="n">
-        <v>-28.58408710830573</v>
+        <v>-28.54517678426012</v>
       </c>
       <c r="F24" t="n">
-        <v>2.005869004541759</v>
+        <v>0.681634941312534</v>
       </c>
       <c r="G24" t="n">
-        <v>-4.757169505197309</v>
+        <v>-2.936985918020659</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-6.839354652271356</v>
       </c>
       <c r="E25" t="n">
-        <v>-28.88104672136176</v>
+        <v>-28.79881396721288</v>
       </c>
       <c r="F25" t="n">
-        <v>2.301283725862466</v>
+        <v>0.999987377211945</v>
       </c>
       <c r="G25" t="n">
-        <v>-4.466677489745091</v>
+        <v>-2.770281625936961</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-6.943426846593252</v>
       </c>
       <c r="E26" t="n">
-        <v>-28.91098881796079</v>
+        <v>-28.77156888499925</v>
       </c>
       <c r="F26" t="n">
-        <v>2.195785949563837</v>
+        <v>0.9279273423710848</v>
       </c>
       <c r="G26" t="n">
-        <v>-4.57209671222667</v>
+        <v>-2.944932945845587</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-6.970436652518937</v>
       </c>
       <c r="E27" t="n">
-        <v>-29.05624791798974</v>
+        <v>-28.92254932137003</v>
       </c>
       <c r="F27" t="n">
-        <v>2.158891840155853</v>
+        <v>0.803890865248572</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.251243646484489</v>
+        <v>-2.70496412705959</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-6.938525800871867</v>
       </c>
       <c r="E28" t="n">
-        <v>-28.86149991321907</v>
+        <v>-28.79513503011436</v>
       </c>
       <c r="F28" t="n">
-        <v>2.3566117976716</v>
+        <v>1.066535552556439</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.295194507124164</v>
+        <v>-2.842799891377282</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-6.866000557039409</v>
       </c>
       <c r="E29" t="n">
-        <v>-28.8571794532813</v>
+        <v>-28.83802541422385</v>
       </c>
       <c r="F29" t="n">
-        <v>2.219640125341462</v>
+        <v>0.9351281089340341</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.215161259852692</v>
+        <v>-2.800852153072392</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-6.768377612668458</v>
       </c>
       <c r="E30" t="n">
-        <v>-28.67373010586303</v>
+        <v>-28.60922432976185</v>
       </c>
       <c r="F30" t="n">
-        <v>2.283294901757934</v>
+        <v>0.9502366264133859</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.195483528681578</v>
+        <v>-2.763866397544515</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-6.667349162908605</v>
       </c>
       <c r="E31" t="n">
-        <v>-28.25514299940737</v>
+        <v>-28.24588674129826</v>
       </c>
       <c r="F31" t="n">
-        <v>2.159886855171824</v>
+        <v>0.8627931357334976</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.47114196501412</v>
+        <v>-3.1609035735227</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-6.57682788483014</v>
       </c>
       <c r="E32" t="n">
-        <v>-28.12094689527967</v>
+        <v>-28.21365349170193</v>
       </c>
       <c r="F32" t="n">
-        <v>2.147134952203983</v>
+        <v>0.8694833024856196</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.706895062285081</v>
+        <v>-3.398240839437511</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-6.502393665265286</v>
       </c>
       <c r="E33" t="n">
-        <v>-27.5454747238716</v>
+        <v>-27.66820197070994</v>
       </c>
       <c r="F33" t="n">
-        <v>2.076567439887079</v>
+        <v>0.8162892760396866</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.969304088141797</v>
+        <v>-3.762285412254545</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-6.449757702713649</v>
       </c>
       <c r="E34" t="n">
-        <v>-26.9849277777031</v>
+        <v>-27.04460249405569</v>
       </c>
       <c r="F34" t="n">
-        <v>2.152895565454342</v>
+        <v>0.90961121069551</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.850805655121334</v>
+        <v>-3.710806477480879</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-6.41917354670479</v>
       </c>
       <c r="E35" t="n">
-        <v>-26.75717407746843</v>
+        <v>-26.74319149803347</v>
       </c>
       <c r="F35" t="n">
-        <v>1.953107024089603</v>
+        <v>0.7025695335564539</v>
       </c>
       <c r="G35" t="n">
-        <v>-5.160949217138983</v>
+        <v>-3.997318432869212</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-6.403750265116162</v>
       </c>
       <c r="E36" t="n">
-        <v>-25.876166834643</v>
+        <v>-25.85656765728894</v>
       </c>
       <c r="F36" t="n">
-        <v>1.876962190762124</v>
+        <v>0.6495326147446217</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.389828855418038</v>
+        <v>-4.126238338951689</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-6.39475471943476</v>
       </c>
       <c r="E37" t="n">
-        <v>-25.39323105972025</v>
+        <v>-25.22380356864548</v>
       </c>
       <c r="F37" t="n">
-        <v>1.753763621021482</v>
+        <v>0.5718428896818192</v>
       </c>
       <c r="G37" t="n">
-        <v>-5.63787562505738</v>
+        <v>-4.348715841141139</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-6.387941434665428</v>
       </c>
       <c r="E38" t="n">
-        <v>-24.92600604820758</v>
+        <v>-24.84133812573013</v>
       </c>
       <c r="F38" t="n">
-        <v>1.746824700515367</v>
+        <v>0.5482898368695539</v>
       </c>
       <c r="G38" t="n">
-        <v>-5.802458964080719</v>
+        <v>-4.502720599468363</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-6.374994274200499</v>
       </c>
       <c r="E39" t="n">
-        <v>-24.4674088642676</v>
+        <v>-24.22654976888836</v>
       </c>
       <c r="F39" t="n">
-        <v>1.634545111344724</v>
+        <v>0.5325921657623244</v>
       </c>
       <c r="G39" t="n">
-        <v>-5.91290563085352</v>
+        <v>-4.671925521394831</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-6.344995760176541</v>
       </c>
       <c r="E40" t="n">
-        <v>-23.9995816068242</v>
+        <v>-23.76741580053187</v>
       </c>
       <c r="F40" t="n">
-        <v>1.641143631976954</v>
+        <v>0.486965490358909</v>
       </c>
       <c r="G40" t="n">
-        <v>-6.025525619898048</v>
+        <v>-4.796983198138999</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-6.297839944523421</v>
       </c>
       <c r="E41" t="n">
-        <v>-23.19117118325614</v>
+        <v>-22.97324980245561</v>
       </c>
       <c r="F41" t="n">
-        <v>1.709825852684649</v>
+        <v>0.654769535881312</v>
       </c>
       <c r="G41" t="n">
-        <v>-6.136914932475452</v>
+        <v>-4.928351364852878</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-6.232010234506134</v>
       </c>
       <c r="E42" t="n">
-        <v>-22.79142390058972</v>
+        <v>-22.51022742015513</v>
       </c>
       <c r="F42" t="n">
-        <v>1.832265068860471</v>
+        <v>0.7792642436032853</v>
       </c>
       <c r="G42" t="n">
-        <v>-6.190606466429371</v>
+        <v>-5.068530651379239</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-6.143944830659658</v>
       </c>
       <c r="E43" t="n">
-        <v>-21.97648041790364</v>
+        <v>-21.66731877859912</v>
       </c>
       <c r="F43" t="n">
-        <v>2.013305432555859</v>
+        <v>0.9600951304532057</v>
       </c>
       <c r="G43" t="n">
-        <v>-6.18521243765858</v>
+        <v>-5.070271927657188</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-6.035375871953025</v>
       </c>
       <c r="E44" t="n">
-        <v>-21.72247665047131</v>
+        <v>-21.30333966729629</v>
       </c>
       <c r="F44" t="n">
-        <v>1.976987384472911</v>
+        <v>0.9343294784606888</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.362730971889544</v>
+        <v>-5.296637843790632</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-5.910475238795011</v>
       </c>
       <c r="E45" t="n">
-        <v>-21.17987925149881</v>
+        <v>-20.75008513381063</v>
       </c>
       <c r="F45" t="n">
-        <v>2.045669605180606</v>
+        <v>0.9827186297637084</v>
       </c>
       <c r="G45" t="n">
-        <v>-6.458409521056878</v>
+        <v>-5.448299079909186</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-5.77225031860675</v>
       </c>
       <c r="E46" t="n">
-        <v>-20.70290047436905</v>
+        <v>-20.20091539881159</v>
       </c>
       <c r="F46" t="n">
-        <v>2.197880718018513</v>
+        <v>1.148179153077442</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.402191172654506</v>
+        <v>-5.366459094845557</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-5.6252563452581</v>
       </c>
       <c r="E47" t="n">
-        <v>-20.17490099306508</v>
+        <v>-19.58195059736331</v>
       </c>
       <c r="F47" t="n">
-        <v>2.072377902977727</v>
+        <v>1.039958177787735</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.776303726356828</v>
+        <v>-5.762880932590181</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-5.482299403092338</v>
       </c>
       <c r="E48" t="n">
-        <v>-19.72791668174571</v>
+        <v>-19.0171355604684</v>
       </c>
       <c r="F48" t="n">
-        <v>2.113409180083697</v>
+        <v>1.044540483782339</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.817688495639525</v>
+        <v>-5.76780363845867</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-5.353674775344442</v>
       </c>
       <c r="E49" t="n">
-        <v>-19.04588625750883</v>
+        <v>-18.36131592652066</v>
       </c>
       <c r="F49" t="n">
-        <v>2.122521422861538</v>
+        <v>1.112005120325753</v>
       </c>
       <c r="G49" t="n">
-        <v>-7.266126052574326</v>
+        <v>-6.224567900000809</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-5.244947982044215</v>
       </c>
       <c r="E50" t="n">
-        <v>-18.51474462352284</v>
+        <v>-17.66852362934788</v>
       </c>
       <c r="F50" t="n">
-        <v>2.102071245822762</v>
+        <v>1.105472061207732</v>
       </c>
       <c r="G50" t="n">
-        <v>-7.254316795411089</v>
+        <v>-6.222695700694442</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-5.169648042074692</v>
       </c>
       <c r="E51" t="n">
-        <v>-17.68238837805727</v>
+        <v>-16.78542161806778</v>
       </c>
       <c r="F51" t="n">
-        <v>2.128989020465351</v>
+        <v>1.138058802980788</v>
       </c>
       <c r="G51" t="n">
-        <v>-7.642320282428483</v>
+        <v>-6.530927786497199</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-5.136956318965873</v>
       </c>
       <c r="E52" t="n">
-        <v>-17.36435015742606</v>
+        <v>-16.35697600757229</v>
       </c>
       <c r="F52" t="n">
-        <v>2.02385782864629</v>
+        <v>1.05289337299536</v>
       </c>
       <c r="G52" t="n">
-        <v>-7.560873066450105</v>
+        <v>-6.447477448184037</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-5.151545712448661</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.8311137549854</v>
+        <v>-15.70658967930386</v>
       </c>
       <c r="F53" t="n">
-        <v>2.121683515479668</v>
+        <v>1.216285312460101</v>
       </c>
       <c r="G53" t="n">
-        <v>-7.663451259215029</v>
+        <v>-6.574734631805614</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-5.220254124446865</v>
       </c>
       <c r="E54" t="n">
-        <v>-16.48440339113081</v>
+        <v>-15.33633935493985</v>
       </c>
       <c r="F54" t="n">
-        <v>1.865048195176153</v>
+        <v>0.9652534977728457</v>
       </c>
       <c r="G54" t="n">
-        <v>-8.066929848191343</v>
+        <v>-6.915199967204701</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-5.350054485772254</v>
       </c>
       <c r="E55" t="n">
-        <v>-15.91276726445536</v>
+        <v>-14.66632766471168</v>
       </c>
       <c r="F55" t="n">
-        <v>1.94656087266874</v>
+        <v>1.014153248886693</v>
       </c>
       <c r="G55" t="n">
-        <v>-8.197643399763136</v>
+        <v>-7.198242462339977</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-5.539105124097867</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.52079680967693</v>
+        <v>-14.29429678716119</v>
       </c>
       <c r="F56" t="n">
-        <v>1.77544447452738</v>
+        <v>0.9331511712049334</v>
       </c>
       <c r="G56" t="n">
-        <v>-8.404645799993666</v>
+        <v>-7.476375343909605</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-5.777567497009441</v>
       </c>
       <c r="E57" t="n">
-        <v>-14.87188991162962</v>
+        <v>-13.56889156360967</v>
       </c>
       <c r="F57" t="n">
-        <v>1.681782139997672</v>
+        <v>0.8948692776957264</v>
       </c>
       <c r="G57" t="n">
-        <v>-8.707235103271639</v>
+        <v>-7.883205562413401</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-6.06268232478774</v>
       </c>
       <c r="E58" t="n">
-        <v>-14.66433763467973</v>
+        <v>-13.28443509976749</v>
       </c>
       <c r="F58" t="n">
-        <v>1.559316739216166</v>
+        <v>0.7484449627138621</v>
       </c>
       <c r="G58" t="n">
-        <v>-8.751028856277212</v>
+        <v>-7.841545854771028</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-6.384590355808871</v>
       </c>
       <c r="E59" t="n">
-        <v>-14.18099599836889</v>
+        <v>-12.73546174931107</v>
       </c>
       <c r="F59" t="n">
-        <v>1.616111148943574</v>
+        <v>0.8005523280239318</v>
       </c>
       <c r="G59" t="n">
-        <v>-8.910702581734904</v>
+        <v>-8.084342610970838</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-6.72891459715125</v>
       </c>
       <c r="E60" t="n">
-        <v>-14.05223319992052</v>
+        <v>-12.58840900379281</v>
       </c>
       <c r="F60" t="n">
-        <v>1.473274124940342</v>
+        <v>0.727562739681309</v>
       </c>
       <c r="G60" t="n">
-        <v>-8.827474812570053</v>
+        <v>-7.951874690818254</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-7.089675516714427</v>
       </c>
       <c r="E61" t="n">
-        <v>-13.77482039500718</v>
+        <v>-12.14537856793164</v>
       </c>
       <c r="F61" t="n">
-        <v>1.392756462463727</v>
+        <v>0.6539839977108085</v>
       </c>
       <c r="G61" t="n">
-        <v>-9.029096276332634</v>
+        <v>-8.344696145281404</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-7.460046743111385</v>
       </c>
       <c r="E62" t="n">
-        <v>-13.46463755608101</v>
+        <v>-11.76242870981115</v>
       </c>
       <c r="F62" t="n">
-        <v>1.386838741579267</v>
+        <v>0.689804538285771</v>
       </c>
       <c r="G62" t="n">
-        <v>-9.338820884659347</v>
+        <v>-8.526299477998986</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-7.829853603142824</v>
       </c>
       <c r="E63" t="n">
-        <v>-13.02889953290268</v>
+        <v>-11.33897126669836</v>
       </c>
       <c r="F63" t="n">
-        <v>1.334862299297614</v>
+        <v>0.6957222591702312</v>
       </c>
       <c r="G63" t="n">
-        <v>-9.327456765792729</v>
+        <v>-8.499564995596181</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-8.189959611363472</v>
       </c>
       <c r="E64" t="n">
-        <v>-12.77693816471366</v>
+        <v>-11.0194405235432</v>
       </c>
       <c r="F64" t="n">
-        <v>1.274938829191034</v>
+        <v>0.6143274124032202</v>
       </c>
       <c r="G64" t="n">
-        <v>-9.528043937630814</v>
+        <v>-8.641577204520383</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-8.53540932810764</v>
       </c>
       <c r="E65" t="n">
-        <v>-12.53787271482375</v>
+        <v>-10.72989115389558</v>
       </c>
       <c r="F65" t="n">
-        <v>1.268039185593445</v>
+        <v>0.6554634279319236</v>
       </c>
       <c r="G65" t="n">
-        <v>-9.6975368902198</v>
+        <v>-8.823573306323217</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-8.856270492609061</v>
       </c>
       <c r="E66" t="n">
-        <v>-12.32931233055505</v>
+        <v>-10.48932008917887</v>
       </c>
       <c r="F66" t="n">
-        <v>1.074024349781906</v>
+        <v>0.4400426769741628</v>
       </c>
       <c r="G66" t="n">
-        <v>-9.72226825028782</v>
+        <v>-8.770772048962536</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-9.139071833874043</v>
       </c>
       <c r="E67" t="n">
-        <v>-12.14378130698495</v>
+        <v>-10.29341996175812</v>
       </c>
       <c r="F67" t="n">
-        <v>1.044357191542555</v>
+        <v>0.4359186015790191</v>
       </c>
       <c r="G67" t="n">
-        <v>-9.769714755786236</v>
+        <v>-8.863766676047316</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-9.382199902100194</v>
       </c>
       <c r="E68" t="n">
-        <v>-12.02668375036855</v>
+        <v>-10.09964078739773</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9442796286204006</v>
+        <v>0.4051778745066463</v>
       </c>
       <c r="G68" t="n">
-        <v>-9.706976440568685</v>
+        <v>-8.728549372297969</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-9.580265595865917</v>
       </c>
       <c r="E69" t="n">
-        <v>-11.86004491979906</v>
+        <v>-9.957694039987738</v>
       </c>
       <c r="F69" t="n">
-        <v>0.7436662721766321</v>
+        <v>0.1382258195638517</v>
       </c>
       <c r="G69" t="n">
-        <v>-9.661179565228327</v>
+        <v>-8.707876626110885</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-9.725043458666857</v>
       </c>
       <c r="E70" t="n">
-        <v>-11.74675722330961</v>
+        <v>-9.855076570314289</v>
       </c>
       <c r="F70" t="n">
-        <v>0.8813842057687485</v>
+        <v>0.2668707872866521</v>
       </c>
       <c r="G70" t="n">
-        <v>-9.59961955726653</v>
+        <v>-8.592572714983802</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-9.816385510057017</v>
       </c>
       <c r="E71" t="n">
-        <v>-11.57226301103508</v>
+        <v>-9.699592381765951</v>
       </c>
       <c r="F71" t="n">
-        <v>0.7854438105445799</v>
+        <v>0.1823730647461521</v>
       </c>
       <c r="G71" t="n">
-        <v>-9.244975257889854</v>
+        <v>-8.312240326536765</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-9.856374237446486</v>
       </c>
       <c r="E72" t="n">
-        <v>-11.50860823461861</v>
+        <v>-9.6976939978539</v>
       </c>
       <c r="F72" t="n">
-        <v>0.822861612066233</v>
+        <v>0.1322557294680247</v>
       </c>
       <c r="G72" t="n">
-        <v>-9.100318403791624</v>
+        <v>-8.090011578101306</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-9.845193710105354</v>
       </c>
       <c r="E73" t="n">
-        <v>-11.50284762136825</v>
+        <v>-9.717541928961957</v>
       </c>
       <c r="F73" t="n">
-        <v>0.6484721382144418</v>
+        <v>-0.002568805196070389</v>
       </c>
       <c r="G73" t="n">
-        <v>-9.067823308138459</v>
+        <v>-8.000656611206525</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-9.783927059385208</v>
       </c>
       <c r="E74" t="n">
-        <v>-11.62435728404231</v>
+        <v>-9.858048523059361</v>
       </c>
       <c r="F74" t="n">
-        <v>0.7453944561517399</v>
+        <v>0.1013448024587094</v>
       </c>
       <c r="G74" t="n">
-        <v>-8.842282207084043</v>
+        <v>-7.804874314511354</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-9.681501195046124</v>
       </c>
       <c r="E75" t="n">
-        <v>-11.67596714184439</v>
+        <v>-9.936170294115941</v>
       </c>
       <c r="F75" t="n">
-        <v>0.5889676217987968</v>
+        <v>-0.1623996382878622</v>
       </c>
       <c r="G75" t="n">
-        <v>-8.67068139373754</v>
+        <v>-7.60808391049737</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-9.542997280807024</v>
       </c>
       <c r="E76" t="n">
-        <v>-12.04257780601841</v>
+        <v>-10.31902850611654</v>
       </c>
       <c r="F76" t="n">
-        <v>0.6972933355112383</v>
+        <v>-0.05745173870858607</v>
       </c>
       <c r="G76" t="n">
-        <v>-8.417633364412659</v>
+        <v>-7.343305177826301</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-9.36805498335946</v>
       </c>
       <c r="E77" t="n">
-        <v>-12.43377581492918</v>
+        <v>-10.64404492416238</v>
       </c>
       <c r="F77" t="n">
-        <v>0.6023479553030409</v>
+        <v>-0.1581708244699847</v>
       </c>
       <c r="G77" t="n">
-        <v>-8.23051817219871</v>
+        <v>-7.26812917490911</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-9.167237868514189</v>
       </c>
       <c r="E78" t="n">
-        <v>-12.9931051769334</v>
+        <v>-11.19077949083287</v>
       </c>
       <c r="F78" t="n">
-        <v>0.5832593777598043</v>
+        <v>-0.2189060173527519</v>
       </c>
       <c r="G78" t="n">
-        <v>-7.996728920354007</v>
+        <v>-7.006479502617215</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-8.945693207681122</v>
       </c>
       <c r="E79" t="n">
-        <v>-13.406651746795</v>
+        <v>-11.63778998675792</v>
       </c>
       <c r="F79" t="n">
-        <v>0.4660178058121473</v>
+        <v>-0.2923538362948352</v>
       </c>
       <c r="G79" t="n">
-        <v>-7.95753056564588</v>
+        <v>-6.961219411693368</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-8.703238815291979</v>
       </c>
       <c r="E80" t="n">
-        <v>-13.92322164771815</v>
+        <v>-12.11429744098538</v>
       </c>
       <c r="F80" t="n">
-        <v>0.721396265042856</v>
+        <v>-0.209819959180594</v>
       </c>
       <c r="G80" t="n">
-        <v>-7.673440686283266</v>
+        <v>-6.582432905876549</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-8.443810766046701</v>
       </c>
       <c r="E81" t="n">
-        <v>-14.78040089937164</v>
+        <v>-12.96770610942045</v>
       </c>
       <c r="F81" t="n">
-        <v>0.5417305931458491</v>
+        <v>-0.3041238165495469</v>
       </c>
       <c r="G81" t="n">
-        <v>-7.642516666971109</v>
+        <v>-6.594870593576189</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-8.172970071950326</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.44487454549776</v>
+        <v>-13.64017915258287</v>
       </c>
       <c r="F82" t="n">
-        <v>0.6375400653416006</v>
+        <v>-0.2815003172390443</v>
       </c>
       <c r="G82" t="n">
-        <v>-7.490894707761079</v>
+        <v>-6.391232915175982</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-7.891831428462757</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.20650617101233</v>
+        <v>-14.35065915089482</v>
       </c>
       <c r="F83" t="n">
-        <v>0.5052947143373255</v>
+        <v>-0.4660363257931732</v>
       </c>
       <c r="G83" t="n">
-        <v>-7.253544349543428</v>
+        <v>-6.084454074988656</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-7.598469859873679</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.28861118548668</v>
+        <v>-15.49865772557157</v>
       </c>
       <c r="F84" t="n">
-        <v>0.5256925221647347</v>
+        <v>-0.49142230100328</v>
       </c>
       <c r="G84" t="n">
-        <v>-7.040584951519911</v>
+        <v>-5.930043455273339</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-7.298210765656094</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.11033648104477</v>
+        <v>-16.31783002207553</v>
       </c>
       <c r="F85" t="n">
-        <v>0.5785723333424664</v>
+        <v>-0.4946299151995029</v>
       </c>
       <c r="G85" t="n">
-        <v>-6.794397288884094</v>
+        <v>-5.616378063791266</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-6.991535386748297</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.13361777885124</v>
+        <v>-17.29706881312243</v>
       </c>
       <c r="F86" t="n">
-        <v>0.5526495737158487</v>
+        <v>-0.6055217202689227</v>
       </c>
       <c r="G86" t="n">
-        <v>-6.492986292861876</v>
+        <v>-5.329748277677357</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-6.674081065994194</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.15553747716217</v>
+        <v>-18.33802471976523</v>
       </c>
       <c r="F87" t="n">
-        <v>0.5925156358689045</v>
+        <v>-0.6229868522597853</v>
       </c>
       <c r="G87" t="n">
-        <v>-6.108543912217432</v>
+        <v>-4.848697794363816</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-6.351256599957362</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.47494048064279</v>
+        <v>-19.64173005213863</v>
       </c>
       <c r="F88" t="n">
-        <v>0.7013257647864899</v>
+        <v>-0.4642034033953316</v>
       </c>
       <c r="G88" t="n">
-        <v>-5.9379381138869</v>
+        <v>-4.667055184737709</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-6.026885554654641</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.03610594839873</v>
+        <v>-21.14255309609705</v>
       </c>
       <c r="F89" t="n">
-        <v>0.5281276904932958</v>
+        <v>-0.6826353840066893</v>
       </c>
       <c r="G89" t="n">
-        <v>-5.572990172173786</v>
+        <v>-4.345167827071032</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-5.702747115628713</v>
       </c>
       <c r="E90" t="n">
-        <v>-24.54615906586058</v>
+        <v>-22.65760747324444</v>
       </c>
       <c r="F90" t="n">
-        <v>0.3476372035172602</v>
+        <v>-0.8569463040414301</v>
       </c>
       <c r="G90" t="n">
-        <v>-5.346061287018148</v>
+        <v>-4.091229521152913</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-5.385820174111954</v>
       </c>
       <c r="E91" t="n">
-        <v>-25.95719509693045</v>
+        <v>-24.12635437524063</v>
       </c>
       <c r="F91" t="n">
-        <v>0.3009107746751399</v>
+        <v>-0.8936963981181553</v>
       </c>
       <c r="G91" t="n">
-        <v>-5.363932280397104</v>
+        <v>-4.123580601474818</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-5.088796521059535</v>
       </c>
       <c r="E92" t="n">
-        <v>-27.66639523291779</v>
+        <v>-25.72212279940726</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1414465260629164</v>
+        <v>-1.058148814113076</v>
       </c>
       <c r="G92" t="n">
-        <v>-5.064877898886397</v>
+        <v>-3.896167301114036</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-4.822823334539491</v>
       </c>
       <c r="E93" t="n">
-        <v>-29.61103425090788</v>
+        <v>-27.73118903968149</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1601816114294264</v>
+        <v>-1.022655581109157</v>
       </c>
       <c r="G93" t="n">
-        <v>-5.109090605582906</v>
+        <v>-3.863907866912023</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-4.597200919503471</v>
       </c>
       <c r="E94" t="n">
-        <v>-31.7558938562565</v>
+        <v>-29.83971750464431</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1559789822172323</v>
+        <v>-0.9619203882263898</v>
       </c>
       <c r="G94" t="n">
-        <v>-5.164431769694882</v>
+        <v>-3.926502166798315</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-4.42980715280323</v>
       </c>
       <c r="E95" t="n">
-        <v>-33.9236257146696</v>
+        <v>-32.03307099971868</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.2125038812631479</v>
+        <v>-1.365202592660078</v>
       </c>
       <c r="G95" t="n">
-        <v>-5.304218287135991</v>
+        <v>-4.155172328231903</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-4.34066460820503</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.00426757457956</v>
+        <v>-34.19680970576506</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.335427512644114</v>
+        <v>-1.391099167681012</v>
       </c>
       <c r="G96" t="n">
-        <v>-5.419980428862533</v>
+        <v>-4.380870536920419</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-4.33167965759567</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.29678217137716</v>
+        <v>-36.48156056697752</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.6305411109994613</v>
+        <v>-1.636854784323052</v>
       </c>
       <c r="G97" t="n">
-        <v>-5.62353955344569</v>
+        <v>-4.466323997568365</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-4.432339684182137</v>
       </c>
       <c r="E98" t="n">
-        <v>-40.74895740132961</v>
+        <v>-38.94229816298846</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.9180873583122909</v>
+        <v>-1.973588813412247</v>
       </c>
       <c r="G98" t="n">
-        <v>-5.871049538668522</v>
+        <v>-4.814788730003746</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-4.632334807648548</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.12125649164469</v>
+        <v>-41.31809289816228</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.7955957729251018</v>
+        <v>-1.829298543793584</v>
       </c>
       <c r="G99" t="n">
-        <v>-6.250961982529729</v>
+        <v>-5.136532072339164</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-4.968804596466313</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.66001112028948</v>
+        <v>-43.84532630030635</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.9296740463272185</v>
+        <v>-2.007510970075159</v>
       </c>
       <c r="G100" t="n">
-        <v>-6.434502976067886</v>
+        <v>-5.347383609605163</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-5.380416903563593</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.1312225585738</v>
+        <v>-46.3171137999157</v>
       </c>
       <c r="F101" t="n">
-        <v>-1.068805948626241</v>
+        <v>-2.221530844628855</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.795719611471108</v>
+        <v>-5.75536595075903</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-5.949605613512699</v>
       </c>
       <c r="E102" t="n">
-        <v>-50.4716811683778</v>
+        <v>-48.66549325293895</v>
       </c>
       <c r="F102" t="n">
-        <v>-1.160936483723468</v>
+        <v>-2.311409503637304</v>
       </c>
       <c r="G102" t="n">
-        <v>-7.079534552474046</v>
+        <v>-6.067813758076823</v>
       </c>
     </row>
   </sheetData>
